--- a/NC State House/HD9/Results.xlsx
+++ b/NC State House/HD9/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State House\HD9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2176E1-42F4-4A60-9669-A1FBCAE606CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C217E0-C8D4-47EF-BF16-BF2DDCD1E519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{46D8D866-A35E-4E85-9D4A-6D3E8BF5154E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{46D8D866-A35E-4E85-9D4A-6D3E8BF5154E}"/>
   </bookViews>
   <sheets>
     <sheet name="HD8" sheetId="4" r:id="rId1"/>
@@ -333,7 +333,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1746,7 +1746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F4BF3F-7F5E-4D5C-AAA0-FA3F23DD67F1}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -3288,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832E9FEC-BE37-4704-9B14-C13F94558826}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
